--- a/usecase/system-usecase/system-use-cases.xlsx
+++ b/usecase/system-usecase/system-use-cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\IntelliJ Projects\outcobra\docs\usecase\system-use-case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Multi-Lang\outcobra\docs\usecase\system-usecase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="SystemUseCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -274,12 +273,6 @@
     <t>SUC-005</t>
   </si>
   <si>
-    <t>Noten und Raportierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User registriert , </t>
-  </si>
-  <si>
     <t>Einem Test eine Note hinzufügen</t>
   </si>
   <si>
@@ -371,6 +364,9 @@
   </si>
   <si>
     <t>Schulfächer wieder sichtbar</t>
+  </si>
+  <si>
+    <t>Noten und Rapportierung</t>
   </si>
 </sst>
 </file>
@@ -547,23 +543,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -927,10 +923,10 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="B42" sqref="B42:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
@@ -948,7 +944,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="27"/>
@@ -972,7 +968,7 @@
       <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -997,7 +993,7 @@
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
-      <c r="B3" s="23"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1014,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1031,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1050,7 @@
       <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1081,7 +1077,7 @@
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
-      <c r="B7" s="23"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1096,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1119,7 +1115,7 @@
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1138,7 +1134,7 @@
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1153,7 @@
     </row>
     <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
@@ -1176,7 +1172,7 @@
       <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1200,7 +1196,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1219,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1242,7 +1238,7 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1257,7 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1278,7 +1274,7 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1297,7 +1293,7 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1312,7 +1308,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
@@ -1327,7 +1323,7 @@
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1344,7 +1340,7 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1363,7 +1359,7 @@
       <c r="A22" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1382,15 +1378,15 @@
         <v>14</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="30">
+      <c r="I22" s="23">
         <v>7.1</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
-      <c r="B23" s="23"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1405,15 +1401,15 @@
         <v>42</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="31">
+      <c r="I23" s="24">
         <v>7.2</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1428,15 +1424,15 @@
         <v>67</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="31">
+      <c r="I24" s="24">
         <v>7.3</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
-      <c r="B25" s="23"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1451,15 +1447,15 @@
         <v>70</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="31">
+      <c r="I25" s="24">
         <v>8.1</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="23"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1472,15 +1468,15 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="31">
+      <c r="I26" s="24">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
@@ -1493,15 +1489,15 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="31">
+      <c r="I27" s="24">
         <v>8.4</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1514,13 +1510,13 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1533,13 +1529,13 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
@@ -1552,13 +1548,13 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
-      <c r="B31" s="24"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
@@ -1577,8 +1573,8 @@
       <c r="A32" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>84</v>
+      <c r="B32" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>10</v>
@@ -1593,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="21">
@@ -1602,15 +1598,15 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>47</v>
@@ -1625,15 +1621,15 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
@@ -1646,19 +1642,19 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="13">
@@ -1667,15 +1663,15 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F36" s="7"/>
       <c r="H36" s="3"/>
@@ -1685,15 +1681,15 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
@@ -1703,15 +1699,15 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -1720,15 +1716,15 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -1737,15 +1733,15 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1754,15 +1750,15 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
-      <c r="B41" s="24"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -1771,10 +1767,10 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>10</v>
@@ -1789,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="21">
@@ -1798,15 +1794,15 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="4" t="s">
@@ -1817,34 +1813,34 @@
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="16"/>
@@ -1853,7 +1849,7 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="4" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1857,7 @@
         <v>51</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F46" s="7"/>
       <c r="H46" s="3"/>
@@ -1870,15 +1866,15 @@
     </row>
     <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F47" s="3"/>
       <c r="H47" s="3"/>
@@ -1886,7 +1882,7 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
-      <c r="B48" s="24"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="2" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
